--- a/Scenario_A/CoMo doc/TH_CoMoCOVID_susceptibility_A_high_risk_90_HF.xlsx
+++ b/Scenario_A/CoMo doc/TH_CoMoCOVID_susceptibility_A_high_risk_90_HF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\como\wave1_2022\Scenario_A\susceptibility_A\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tanaphum\Documents\GitHub\CoVac19TH\Scenario_A\CoMo doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32300835-134A-4D91-B017-C7885ADBAA2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D20C761-6CE1-466D-AECC-2C31FD669EEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4070" tabRatio="648" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4070" tabRatio="648" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,6 @@
     <externalReference r:id="rId14"/>
     <externalReference r:id="rId15"/>
     <externalReference r:id="rId16"/>
-    <externalReference r:id="rId17"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Interventions Param'!$A$1:$F$25</definedName>
@@ -3894,17 +3893,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{BA153BD5-E861-4963-92C0-E2D628693DB1}"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3913,26 +3902,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="2"/>
@@ -4058,18 +4027,18 @@
       <sheetName val="HIDDEN"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
       <sheetData sheetId="12">
         <row r="2">
           <cell r="E2" t="str">
@@ -4226,25 +4195,12 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="HIDDEN"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="E1:F18" totalsRowShown="0">
   <autoFilter ref="E1:F18" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Intervention" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Unit Intervention" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Intervention" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Unit Intervention" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6233,7 +6189,7 @@
   </sheetPr>
   <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -7542,27 +7498,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F17:F78">
-    <cfRule type="expression" dxfId="9" priority="12">
+    <cfRule type="expression" dxfId="6" priority="12">
       <formula>NOT(OR($A17="Vaccination",$A17="School Closures",$A17="Partial School Closures",$A17="Mass Testing"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F79:F92">
-    <cfRule type="expression" dxfId="8" priority="11">
+    <cfRule type="expression" dxfId="5" priority="11">
       <formula>NOT(OR($A79="Vaccination",$A79="School Closures",$A79="Partial School Closures",$A79="Mass Testing"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F93">
-    <cfRule type="expression" dxfId="7" priority="10">
+    <cfRule type="expression" dxfId="4" priority="10">
       <formula>NOT(OR($A93="Vaccination",$A93="School Closures",$A93="Partial School Closures",$A93="Mass Testing"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F4">
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>NOT(OR($A2="Vaccination",$A2="School Closures",$A2="Mass Testing"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F16">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>NOT(OR($A5="Vaccination",$A5="School Closures",$A5="Partial School Closures",$A5="Mass Testing"))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18722,8 +18678,8 @@
   </sheetPr>
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
@@ -18758,7 +18714,7 @@
         <v>186</v>
       </c>
       <c r="B2" s="72">
-        <v>177292</v>
+        <v>300000</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>187</v>
